--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1986.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1986.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.003*"import" + 0.003*"exchange" + 0.002*"foreign" + 0.002*"export" + 0.002*"bank" + 0.002*"payment" + 0.002*"account" + 0.001*"may" + 0.001*"currency" + 0.001*"country"</t>
-  </si>
-  <si>
-    <t>0.003*"import" + 0.002*"foreign" + 0.002*"exchange" + 0.002*"bank" + 0.001*"may" + 0.001*"export" + 0.001*"currency" + 0.001*"account" + 0.001*"rate" + 0.001*"percent"</t>
-  </si>
-  <si>
-    <t>0.001*"import" + 0.001*"foreign" + 0.001*"exchange" + 0.001*"export" + 0.001*"may" + 0.001*"payment" + 0.001*"account" + 0.000*"bank" + 0.000*"currency" + 0.000*"rate"</t>
-  </si>
-  <si>
-    <t>0.021*"foreign" + 0.019*"import" + 0.018*"bank" + 0.018*"exchange" + 0.014*"export" + 0.012*"may" + 0.012*"currency" + 0.009*"payment" + 0.009*"account" + 0.009*"rate"</t>
-  </si>
-  <si>
-    <t>0.025*"foreign" + 0.015*"bank" + 0.014*"import" + 0.013*"exchange" + 0.009*"payment" + 0.009*"export" + 0.009*"currency" + 0.009*"rate" + 0.008*"country" + 0.008*"may"</t>
+    <t>0.055*"bank" + 0.029*"exchange" + 0.024*"control" + 0.022*"transaction" + 0.022*"central" + 0.021*"payment" + 0.019*"capital" + 0.018*"foreign" + 0.016*"invisibles" + 0.012*"december"</t>
+  </si>
+  <si>
+    <t>0.033*"u" + 0.028*"country" + 0.026*"dollar" + 0.015*"arrangement" + 0.014*"exchange" + 0.014*"change" + 0.013*"per" + 0.011*"addition" + 0.011*"currency" + 0.011*"january"</t>
+  </si>
+  <si>
+    <t>0.090*"import" + 0.030*"export" + 0.023*"license" + 0.023*"require" + 0.023*"gold" + 0.017*"good" + 0.017*"subject" + 0.016*"certain" + 0.016*"approval" + 0.014*"issue"</t>
+  </si>
+  <si>
+    <t>0.061*"foreign" + 0.040*"may" + 0.033*"currency" + 0.032*"account" + 0.024*"exchange" + 0.022*"bank" + 0.019*"resident" + 0.018*"nonresident" + 0.018*"abroad" + 0.016*"fund"</t>
+  </si>
+  <si>
+    <t>0.041*"rate" + 0.041*"percent" + 0.037*"export" + 0.017*"exchange" + 0.017*"proceeds" + 0.016*"market" + 0.015*"year" + 0.013*"tax" + 0.010*"day" + 0.010*"value"</t>
   </si>
 </sst>
 </file>
